--- a/rnaseq-with-probes/v4.0.0/rnaseq-with-probes-v4.0.0.xlsx
+++ b/rnaseq-with-probes/v4.0.0/rnaseq-with-probes-v4.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="390">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1342,60 +1342,72 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1408,12 +1420,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
     <t>sequencing_read_format</t>
   </si>
   <si>
@@ -1573,7 +1579,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:26:39-08:00</t>
+    <t>2023-11-24T09:56:05-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1884,42 +1890,42 @@
         <v>307</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="AZ2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2041,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2847,7 +2853,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2947,6 +2953,14 @@
       </c>
       <c r="B12" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B13" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2964,10 +2978,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
@@ -2988,18 +3002,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
@@ -3012,10 +3026,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3049,18 +3063,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -3081,66 +3095,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3208,18 +3222,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3">
@@ -3232,18 +3246,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3391,30 +3405,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v4.0.0/rnaseq-with-probes-v4.0.0.xlsx
+++ b/rnaseq-with-probes/v4.0.0/rnaseq-with-probes-v4.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="412">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -715,6 +715,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -757,6 +769,18 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -793,6 +817,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -826,6 +856,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -844,18 +880,42 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -880,6 +940,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -940,6 +1006,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1432,12 +1504,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1579,7 +1645,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:56:05-08:00</t>
+    <t>2024-01-29T14:32:38-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1711,58 +1777,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.0546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.27734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="30.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="28.9765625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="27.81640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="28.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="24.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="26.8671875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="25.44140625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="24.28125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="13.09375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="40.37109375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="19.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="19.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="28.66015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="22.09375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="19.6484375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="16.19140625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" style="48" width="25.23046875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" style="49" width="29.35546875" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" style="50" width="28.1953125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" style="51" width="17.39453125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" style="52" width="22.1796875" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" style="53" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.27734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="10.9140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="9.01953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="8.00390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.9765625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="24.99609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="23.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="20.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="23.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="22.17578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="21.9453125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="20.9453125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="11.296875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="34.82421875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="28.32421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="24.72265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="19.78125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="16.94921875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" style="48" width="21.765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" style="49" width="25.3203125" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" style="50" width="24.3203125" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" style="51" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" style="52" width="19.1328125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" style="53" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1788,144 +1854,144 @@
         <v>98</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>269</v>
+        <v>293</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>334</v>
+        <v>358</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>380</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
-      <c r="AZ2" t="s">
-        <v>381</v>
+      <c r="AZ2" t="s" s="53">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -1940,10 +2006,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1957,7 +2023,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_offset'!$A$1:$A$6</formula1>
@@ -2081,27 +2147,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2118,33 +2184,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>234</v>
+      <c r="A1" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>236</v>
+      <c r="A4" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>237</v>
+      <c r="A5" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>238</v>
+      <c r="A6" t="s" s="0">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2161,18 +2227,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>236</v>
+      <c r="A3" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2189,27 +2255,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B1" t="s">
-        <v>229</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
+      <c r="A3" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2226,28 +2292,28 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>242</v>
+      <c r="A1" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>225</v>
+      <c r="A3" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>243</v>
+      <c r="A4" t="s" s="0">
+        <v>267</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>244</v>
+      <c r="A5" t="s" s="0">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2264,43 +2330,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" t="s">
-        <v>247</v>
+      <c r="A1" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B2" t="s">
-        <v>249</v>
+      <c r="A2" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B3" t="s">
-        <v>251</v>
+      <c r="A3" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>253</v>
+      <c r="A4" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>277</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" t="s">
-        <v>255</v>
+      <c r="A5" t="s" s="0">
+        <v>278</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2317,11 +2383,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
+      <c r="A1" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2338,11 +2404,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
+      <c r="A1" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2359,11 +2425,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" t="s">
-        <v>266</v>
+      <c r="A1" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2380,19 +2446,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
+      <c r="A1" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>274</v>
+      <c r="A2" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2409,274 +2475,274 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>71</v>
       </c>
     </row>
@@ -2694,19 +2760,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" t="s">
-        <v>277</v>
+      <c r="A1" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" t="s">
-        <v>279</v>
+      <c r="A2" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2723,59 +2789,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
+      <c r="A1" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
+      <c r="A2" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
+      <c r="A3" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
+      <c r="A4" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" t="s">
-        <v>292</v>
+      <c r="A5" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" t="s">
-        <v>294</v>
+      <c r="A6" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" t="s">
-        <v>296</v>
+      <c r="A7" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2792,35 +2858,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" t="s">
-        <v>299</v>
+      <c r="A1" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>323</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>301</v>
+      <c r="A3" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>325</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B4" t="s">
-        <v>303</v>
+      <c r="A4" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2837,12 +2903,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -2860,107 +2926,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1" t="s">
-        <v>309</v>
+      <c r="A1" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>333</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" t="s">
-        <v>311</v>
+      <c r="A2" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>335</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
+      <c r="A3" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
+      <c r="A4" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>339</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" t="s">
-        <v>317</v>
+      <c r="A5" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
+      <c r="A6" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>343</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>321</v>
+      <c r="A7" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
+      <c r="A8" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>347</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
+      <c r="A9" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" t="s">
-        <v>327</v>
+      <c r="A10" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>351</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" t="s">
-        <v>329</v>
+      <c r="A11" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>353</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>330</v>
-      </c>
-      <c r="B12" t="s">
-        <v>331</v>
+      <c r="A12" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>332</v>
-      </c>
-      <c r="B13" t="s">
-        <v>333</v>
+      <c r="A13" t="s" s="0">
+        <v>356</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2977,59 +3043,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B1" t="s">
-        <v>339</v>
+      <c r="A1" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
-        <v>116</v>
+      <c r="A2" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>230</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>340</v>
-      </c>
-      <c r="B4" t="s">
-        <v>341</v>
+      <c r="A4" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>363</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>342</v>
-      </c>
-      <c r="B5" t="s">
-        <v>343</v>
+      <c r="A5" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>120</v>
+      <c r="A6" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B7" t="s">
-        <v>345</v>
+      <c r="A7" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3046,115 +3112,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" t="s">
-        <v>135</v>
+      <c r="A1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
+      <c r="A2" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" t="s">
-        <v>348</v>
+      <c r="A3" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" t="s">
-        <v>350</v>
+      <c r="A4" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>372</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s">
-        <v>183</v>
+      <c r="A5" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>185</v>
+      <c r="A6" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>352</v>
+      <c r="A7" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>374</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B8" t="s">
-        <v>354</v>
+      <c r="A8" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>376</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B9" t="s">
-        <v>356</v>
+      <c r="A9" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" t="s">
-        <v>358</v>
+      <c r="A10" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B11" t="s">
-        <v>360</v>
+      <c r="A11" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B12" t="s">
-        <v>362</v>
+      <c r="A12" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B13" t="s">
-        <v>364</v>
+      <c r="A13" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" t="s">
-        <v>366</v>
+      <c r="A14" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3171,19 +3237,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" t="s">
-        <v>288</v>
+      <c r="A1" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
+      <c r="A2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3200,11 +3266,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" t="s">
-        <v>215</v>
+      <c r="A1" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3221,43 +3287,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1" t="s">
-        <v>372</v>
+      <c r="A1" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>394</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
+      <c r="A2" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>396</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
+      <c r="A3" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" t="s">
-        <v>376</v>
+      <c r="A4" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>398</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B5" t="s">
-        <v>378</v>
+      <c r="A5" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3274,90 +3340,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>94</v>
       </c>
     </row>
@@ -3375,12 +3441,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -3397,38 +3463,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="80.39453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="69.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D1" t="s">
-        <v>388</v>
+      <c r="A1" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>410</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" t="s">
-        <v>387</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
+      <c r="A2" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -3445,12 +3511,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>96</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>97</v>
       </c>
     </row>
@@ -3461,122 +3527,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3586,314 +3692,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
+      <c r="A1" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="A2" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+      <c r="A3" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
+      <c r="A4" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
+      <c r="A5" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
+      <c r="A6" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="A7" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
+      <c r="A8" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="A9" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+      <c r="A10" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="A11" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
+      <c r="A12" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="A13" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
+      <c r="A15" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="A16" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
+      <c r="A17" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="A18" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
+      <c r="A19" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
+      <c r="A20" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
+      <c r="A21" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
+      <c r="A22" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+      <c r="A23" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
+      <c r="A24" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
+      <c r="A25" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
+      <c r="A26" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="A27" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="A28" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
+      <c r="A29" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="A30" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
+      <c r="A31" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
+      <c r="A32" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
+      <c r="A33" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
+      <c r="A34" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
+      <c r="A35" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
+      <c r="A36" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
+      <c r="A37" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
+      <c r="A38" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3910,43 +4072,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" t="s">
-        <v>211</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" t="s">
-        <v>213</v>
+      <c r="A4" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" t="s">
-        <v>215</v>
+      <c r="A5" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3963,27 +4125,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
+      <c r="A1" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
+      <c r="A2" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
+      <c r="A3" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4000,33 +4162,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
+      <c r="A4" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>225</v>
+      <c r="A5" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>226</v>
+      <c r="A6" t="s" s="0">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
